--- a/Docs/SpreadSheets/SSIM Data Types.xlsx
+++ b/Docs/SpreadSheets/SSIM Data Types.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Pacio\Development\SSIM Proto\Docs\SpreadSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BC9FFB-9AB9-4500-939C-74CE561667A1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D9A329-2CCF-47FA-9105-90F25DC0DF85}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="12075" tabRatio="688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Intrinsic" sheetId="29" r:id="rId1"/>
-    <sheet name="Money" sheetId="30" r:id="rId2"/>
+    <sheet name="Base" sheetId="32" r:id="rId1"/>
+    <sheet name="Intrinsic" sheetId="29" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="31" r:id="rId3"/>
+    <sheet name="Money" sheetId="30" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
-  <si>
-    <t>Id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="128">
   <si>
     <t>Name</t>
   </si>
@@ -338,6 +337,147 @@
   </si>
   <si>
     <t>Consider XML buiult in data types</t>
+  </si>
+  <si>
+    <t>Base Data Types</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Bits</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Blob</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>SSIM_DTB_Base | SSIM_DTB_DateTime</t>
+  </si>
+  <si>
+    <t>SSIM_DTB_Base | SSIM_DTB_Numeric</t>
+  </si>
+  <si>
+    <t>A string of UTF-8 encoded charcaters</t>
+  </si>
+  <si>
+    <t>SSIM_DTB_Base | SSIM_DTB_String</t>
+  </si>
+  <si>
+    <t>SSIM_DTB_Base | SSIM_DTB_Blob</t>
+  </si>
+  <si>
+    <t>SSIM_DTB_Base | SSIM_DTB_File</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>A sequence of binary bytes - a 'blob' of data</t>
+  </si>
+  <si>
+    <t>A file in binary form</t>
+  </si>
+  <si>
+    <t>The "." and ':' separators can be any non digit characters</t>
+  </si>
+  <si>
+    <t>A number as commonly understood</t>
+  </si>
+  <si>
+    <t>A date and optionally time in string numeric form year first {CC}YY.MM.DD{ HH:MM{:SS}}</t>
+  </si>
+  <si>
+    <t>Base 10 number, as per a Json Number</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Used when the SID description from the Facts Directories completely defines the data and there is no need to store anything apart from the SID e.g. a country shown externally as the country name in the human language of choice, or a 3 letter country code, or a 2 letters cod according to formatting options</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Base data types apply to one item of data. They intuitive and suitable for many simple cases e.g. most facts in the SSIM Facts Directories</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A SID is an SSIM Id used to provide standardised semantic description of an item of data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The Bits column is only relevant to a programmer. The Constants quoted are defined in ConstantsSSIM.inc</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -346,9 +486,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,6 +497,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -385,13 +533,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -673,44 +831,187 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988DF991-EDC9-4A2B-9317-26F5CEC72EF1}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.73046875" customWidth="1"/>
+    <col min="2" max="2" width="88.33203125" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E59163-2B59-4D34-9718-A749A296049A}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.9296875" customWidth="1"/>
-    <col min="2" max="2" width="12.86328125" customWidth="1"/>
-    <col min="5" max="6" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="78.06640625" customWidth="1"/>
-    <col min="8" max="8" width="19.3984375" customWidth="1"/>
-    <col min="9" max="9" width="19.9296875" customWidth="1"/>
-    <col min="10" max="10" width="11.265625" customWidth="1"/>
+    <col min="1" max="1" width="12.86328125" customWidth="1"/>
+    <col min="4" max="5" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="78.06640625" customWidth="1"/>
+    <col min="7" max="7" width="19.3984375" customWidth="1"/>
+    <col min="8" max="8" width="19.9296875" customWidth="1"/>
+    <col min="9" max="9" width="11.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="E2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
         <v>78</v>
@@ -722,490 +1023,490 @@
         <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="3">
         <f xml:space="preserve"> -2147483648</f>
         <v>-2147483648</v>
       </c>
-      <c r="F4" s="2">
+      <c r="E4" s="2">
         <f>2147483647</f>
         <v>2147483647</v>
       </c>
+      <c r="F4" t="s">
+        <v>81</v>
+      </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="H4" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="F5" s="2">
+      <c r="E5" s="2">
         <f>2^32-1</f>
         <v>4294967295</v>
       </c>
+      <c r="F5" t="s">
+        <v>89</v>
+      </c>
       <c r="G5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" t="s">
         <v>92</v>
       </c>
-      <c r="J5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>97</v>
-      </c>
-      <c r="I6" t="s">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="D7" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B10" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985696F7-DD0B-4931-AD34-ADB48DA2CB86}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2865CB-771F-4501-9A62-2008850DDC05}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Docs/SpreadSheets/SSIM Data Types.xlsx
+++ b/Docs/SpreadSheets/SSIM Data Types.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Pacio\Development\SSIM Proto\Docs\SpreadSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D9A329-2CCF-47FA-9105-90F25DC0DF85}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B64B40-03B2-4F78-8EE1-796337E3030C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="12075" tabRatio="688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="12075" tabRatio="688" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="32" r:id="rId1"/>
-    <sheet name="Intrinsic" sheetId="29" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="31" r:id="rId3"/>
-    <sheet name="Money" sheetId="30" r:id="rId4"/>
+    <sheet name="Json" sheetId="33" r:id="rId2"/>
+    <sheet name="Std" sheetId="29" r:id="rId3"/>
+    <sheet name="XML" sheetId="31" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="145">
   <si>
     <t>Name</t>
   </si>
@@ -315,9 +315,6 @@
     <t>INT unsigned</t>
   </si>
   <si>
-    <t>Simple Numeric Data Types - One Item</t>
-  </si>
-  <si>
     <t>* const TETN_Integer       =  1; # xbrli:integerItemType               9</t>
   </si>
   <si>
@@ -342,36 +339,12 @@
     <t>Base Data Types</t>
   </si>
   <si>
-    <t>Null</t>
-  </si>
-  <si>
     <t>Bits</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>DateTime</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>Blob</t>
-  </si>
-  <si>
-    <t>File</t>
-  </si>
-  <si>
-    <t>SSIM_DTB_Base | SSIM_DTB_DateTime</t>
-  </si>
-  <si>
-    <t>SSIM_DTB_Base | SSIM_DTB_Numeric</t>
-  </si>
-  <si>
     <t>A string of UTF-8 encoded charcaters</t>
   </si>
   <si>
@@ -384,31 +357,232 @@
     <t>SSIM_DTB_Base | SSIM_DTB_File</t>
   </si>
   <si>
-    <t>Comment</t>
-  </si>
-  <si>
     <t>A sequence of binary bytes - a 'blob' of data</t>
   </si>
   <si>
     <t>A file in binary form</t>
   </si>
   <si>
-    <t>The "." and ':' separators can be any non digit characters</t>
-  </si>
-  <si>
-    <t>A number as commonly understood</t>
-  </si>
-  <si>
-    <t>A date and optionally time in string numeric form year first {CC}YY.MM.DD{ HH:MM{:SS}}</t>
-  </si>
-  <si>
-    <t>Base 10 number, as per a Json Number</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
     <t>Used when the SID description from the Facts Directories completely defines the data and there is no need to store anything apart from the SID e.g. a country shown externally as the country name in the human language of choice, or a 3 letter country code, or a 2 letters cod according to formatting options</t>
+  </si>
+  <si>
+    <t>Json Data Types</t>
+  </si>
+  <si>
+    <t>https://www.json.org/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">An </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is an unordered set of name/value pairs. An object begins with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(left brace)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and ends with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(right brace)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Each name is followed by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(colon)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and the name/value pairs are separated by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(comma)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is a sequence of zero or more Unicode characters, wrapped in double quotes, using backslash escapes. A character is represented as a single character string. A string is very much like a C or Java string.</t>
+    </r>
+  </si>
+  <si>
+    <t>XML Data Types</t>
+  </si>
+  <si>
+    <t>Base data types apply to one item of data. They are intuitive and suitable for many simple cases e.g. most facts in the SSIM Facts Directories</t>
   </si>
   <si>
     <r>
@@ -420,7 +594,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>a.</t>
+      <t>b.</t>
     </r>
     <r>
       <rPr>
@@ -430,7 +604,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Base data types apply to one item of data. They intuitive and suitable for many simple cases e.g. most facts in the SSIM Facts Directories</t>
+      <t xml:space="preserve"> The Bits column is only relevant to a programmer. The Constants quoted are defined in ConstantsSSIM.inc</t>
     </r>
   </si>
   <si>
@@ -443,7 +617,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>b.</t>
+      <t>a.</t>
     </r>
     <r>
       <rPr>
@@ -455,6 +629,48 @@
       </rPr>
       <t xml:space="preserve"> A SID is an SSIM Id used to provide standardised semantic description of an item of data</t>
     </r>
+  </si>
+  <si>
+    <t>The Json data trypes are defined at</t>
+  </si>
+  <si>
+    <t>Standard (Std) Data Types</t>
+  </si>
+  <si>
+    <t>The Standard Data Types are more precise or efficient than the Base or Json ones, more IT or DB oriented, suitable for use with apps developed by programmers.</t>
+  </si>
+  <si>
+    <t>Base.Null</t>
+  </si>
+  <si>
+    <t>Base.Number</t>
+  </si>
+  <si>
+    <t>Base.DateTime</t>
+  </si>
+  <si>
+    <t>Base.String</t>
+  </si>
+  <si>
+    <t>Base.Blob</t>
+  </si>
+  <si>
+    <t>Base.File</t>
+  </si>
+  <si>
+    <t>Json.Number</t>
+  </si>
+  <si>
+    <t>Json.String</t>
+  </si>
+  <si>
+    <t>Json.Object</t>
+  </si>
+  <si>
+    <t>Json.Array</t>
+  </si>
+  <si>
+    <t>An array is an ordered collection of values. An array begins with [ (left bracket) and ends with ] (right bracket). Values are separated by , (comma).</t>
   </si>
   <si>
     <r>
@@ -466,6 +682,61 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A value can be a string in double quotes, or a number, or "true" or "false" or "null", or an object or an array. These structures can be nested.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> For more re digits, hex digits, and ws (white space) see https://www.json.org/</t>
+    </r>
+  </si>
+  <si>
+    <t>SSIM_DTB_Base | SSIM_DTB_DateTime | SSIM_DTB_TextData</t>
+  </si>
+  <si>
+    <t>A base 10 number as commonly understood in text form, like a Json Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CC = 2 digit Century, YY  = 2 digit Year, MM = 2 digit Month 01 to 12, DD = 2 digit Day of the month 01 to 31, HH = Hour of the day 00 to 23, MM = Minute of the hour 00 to 59, SS = Second of the minute 00 to 59</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>c.</t>
     </r>
     <r>
@@ -476,8 +747,26 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> The Bits column is only relevant to a programmer. The Constants quoted are defined in ConstantsSSIM.inc</t>
-    </r>
+      <t xml:space="preserve"> For a DateTime the "." and ':' separators can be any non digit characters, sections enclosed within {}s are optional, and</t>
+    </r>
+  </si>
+  <si>
+    <t>A UTC/GMT date and optionally time in text numeric form year first CCYY.MM.DD{ HH:MM{:SS}}</t>
+  </si>
+  <si>
+    <t>SSIM_DTB_Json | SSIM_DTB_String | SSIM_DTB_TextData</t>
+  </si>
+  <si>
+    <t>SSIM_DTB_Json | SSIM_DTB_Object | SSIM_DTB_TextData</t>
+  </si>
+  <si>
+    <t>SSIM_DTB_Json | SSIM_DTB_Array | SSIM_DTB_TextData</t>
+  </si>
+  <si>
+    <t>SSIM_DTB_Json | SSIM_DTB_Number | SSIM_DTB_TextData</t>
+  </si>
+  <si>
+    <t>SSIM_DTB_Base | SSIM_DTB_Number | SSIM_DTB_TextData</t>
   </si>
 </sst>
 </file>
@@ -488,7 +777,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,6 +800,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -529,18 +846,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -551,9 +866,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -567,6 +897,255 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>10</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>10</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3417580</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1520200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="https://www.json.org/number.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52F975F1-63FE-41B8-93EB-DC815BAE24EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="871548" y="904885"/>
+          <a:ext cx="3417570" cy="1520190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>14298</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>238130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3431868</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2598425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14" descr="https://www.json.org/string.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3A19C5-11A7-40B0-94F1-010795BD6A88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="885836" y="2809880"/>
+          <a:ext cx="3417570" cy="2360295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28585</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>195276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3446155</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>841071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15" descr="https://www.json.org/object.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA69D67C-0194-41E9-8D8F-711E7FED393D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="900123" y="5238764"/>
+          <a:ext cx="3417570" cy="645795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19060</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>204787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3436630</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>850582</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16" descr="https://www.json.org/array.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C9B94C1-7A4A-4440-9375-0838900A13CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="890598" y="6176962"/>
+          <a:ext cx="3417570" cy="645795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -835,138 +1414,137 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.73046875" customWidth="1"/>
-    <col min="2" max="2" width="88.33203125" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.265625" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="50.46484375" customWidth="1"/>
+    <col min="3" max="3" width="88.33203125" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="42.75" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" t="s">
         <v>105</v>
       </c>
-      <c r="B5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" t="s">
         <v>106</v>
       </c>
-      <c r="B6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="C11" t="s">
         <v>108</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
         <v>117</v>
       </c>
-      <c r="D8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -975,17 +1553,133 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA7A8A1-3F59-4D4D-B5F1-02A309C4C2EA}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="12.19921875" customWidth="1"/>
+    <col min="2" max="2" width="48.59765625" customWidth="1"/>
+    <col min="3" max="3" width="82.53125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="9"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="13"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="131.25" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="210" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="73.150000000000006" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="72.75" customHeight="1">
+      <c r="A9" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="12"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="10"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{5E666966-2E29-4258-B58A-E2635D5C61CE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E59163-2B59-4D34-9718-A749A296049A}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.86328125" customWidth="1"/>
     <col min="4" max="5" width="15.86328125" bestFit="1" customWidth="1"/>
@@ -995,525 +1689,530 @@
     <col min="9" max="9" width="11.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="D2" s="4" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="9"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="9"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="D5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
         <v>77</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C6" t="s">
         <v>78</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D6" t="s">
         <v>79</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E6" t="s">
         <v>80</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F6" t="s">
         <v>76</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G6" t="s">
         <v>82</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H6" t="s">
         <v>84</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D7" s="3">
         <f xml:space="preserve"> -2147483648</f>
         <v>-2147483648</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E7" s="2">
         <f>2147483647</f>
         <v>2147483647</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F7" t="s">
         <v>81</v>
       </c>
-      <c r="G4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="G7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" t="s">
         <v>85</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E8" s="2">
         <f>2^32-1</f>
         <v>4294967295</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F8" t="s">
         <v>89</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G8" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H6" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="C7" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A86" t="s">
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985696F7-DD0B-4931-AD34-ADB48DA2CB86}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2865CB-771F-4501-9A62-2008850DDC05}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Docs/SpreadSheets/SSIM Data Types.xlsx
+++ b/Docs/SpreadSheets/SSIM Data Types.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Pacio\Development\SSIM Proto\Docs\SpreadSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B64B40-03B2-4F78-8EE1-796337E3030C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A0A8A4-B83C-40AC-B667-642FEC0D3A79}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="12075" tabRatio="688" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,38 +34,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="288">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>const TETN_Money         =  3; # xbrli:monetaryItemType           3247</t>
-  </si>
-  <si>
-    <t>const TETN_Decimal       =  4; # xbrli:decimalItemType              46            decimal   1</t>
-  </si>
-  <si>
-    <t>const TETN_NonZeroDecimal=  5; # xbrli:nonZeroDecimal                1</t>
-  </si>
-  <si>
-    <t>const TETN_String        =  6; # xbrli:stringItemType             1362            string   55</t>
-  </si>
-  <si>
-    <t>const TETN_Boolean       =  7; # xbrli:booleanItemType              28</t>
-  </si>
-  <si>
-    <t>const TETN_Date          =  8; # xbrli:dateItemType                 36</t>
-  </si>
-  <si>
     <t>const TETN_MonthDay      =  9; # xbrli:gMonthDayItemType</t>
   </si>
   <si>
-    <t>const TETN_Year          = 10; # xbrli:gYearItemType</t>
-  </si>
-  <si>
-    <t>const TETN_YearMonth     = 11; # xbrli:gYearMonthItemType</t>
-  </si>
-  <si>
     <t>const TETN_Duration      = 12; # xbrli:durationItemType</t>
   </si>
   <si>
@@ -261,9 +237,6 @@
     <t># A list of data types used by US GAAP, and the UK specials too, is given here: https://docs.oracle.com/cd/E36352_01/epm.1112/disclosure_mgmt_user/frameset.htm?ch02s03s01s04.html</t>
   </si>
   <si>
-    <t>Integer</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -279,21 +252,9 @@
     <t>To</t>
   </si>
   <si>
-    <t>An integer number, positive, 0, or negative. For smaller and larger intergers see DataBase Types.</t>
-  </si>
-  <si>
-    <t>Tech Notes</t>
-  </si>
-  <si>
-    <t>An unsigned 32 bit int</t>
-  </si>
-  <si>
     <t>XBRL Type</t>
   </si>
   <si>
-    <t>integerItemType</t>
-  </si>
-  <si>
     <t>MySQL Type</t>
   </si>
   <si>
@@ -303,15 +264,6 @@
     <t>INT</t>
   </si>
   <si>
-    <t>A zero or positive integer number</t>
-  </si>
-  <si>
-    <t>PositiveInteger</t>
-  </si>
-  <si>
-    <t>positiveIntegerItemType</t>
-  </si>
-  <si>
     <t>INT unsigned</t>
   </si>
   <si>
@@ -321,19 +273,10 @@
     <t>* const TETN_PositiveInteger= 2; # xbrli:positiveIntegerItemType</t>
   </si>
   <si>
-    <t>Decimal</t>
-  </si>
-  <si>
-    <t>A signed 32 bit int</t>
-  </si>
-  <si>
     <t>decimalItemType</t>
   </si>
   <si>
     <t>http://www.xmlschemareference.com/builtInDatatype.html</t>
-  </si>
-  <si>
-    <t>Consider XML buiult in data types</t>
   </si>
   <si>
     <t>Base Data Types</t>
@@ -768,14 +711,601 @@
   <si>
     <t>SSIM_DTB_Base | SSIM_DTB_Number | SSIM_DTB_TextData</t>
   </si>
+  <si>
+    <t>Std.Decimal</t>
+  </si>
+  <si>
+    <t>Signed</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>DECIMAL[(M[,D])]</t>
+  </si>
+  <si>
+    <t>BIGINT unsigned</t>
+  </si>
+  <si>
+    <t>Std.Int</t>
+  </si>
+  <si>
+    <t>Std.Int64</t>
+  </si>
+  <si>
+    <t>Std.Uint64</t>
+  </si>
+  <si>
+    <t>Std.Int128</t>
+  </si>
+  <si>
+    <t>Std.Uint128</t>
+  </si>
+  <si>
+    <t>Std.Int8</t>
+  </si>
+  <si>
+    <t>Std.Uint8</t>
+  </si>
+  <si>
+    <t>TINYINT</t>
+  </si>
+  <si>
+    <t>TINYINT unsigned</t>
+  </si>
+  <si>
+    <t>Std.Int16</t>
+  </si>
+  <si>
+    <t>Std.Uint16</t>
+  </si>
+  <si>
+    <t>Std.Int32</t>
+  </si>
+  <si>
+    <t>Std.Uint32</t>
+  </si>
+  <si>
+    <t>Std.Udecimal</t>
+  </si>
+  <si>
+    <t>Std.Decimal128</t>
+  </si>
+  <si>
+    <t>Std.Udecimal128</t>
+  </si>
+  <si>
+    <t>Std.Decimal32</t>
+  </si>
+  <si>
+    <t>Std.Udecimal32</t>
+  </si>
+  <si>
+    <t>Std.Decimal64</t>
+  </si>
+  <si>
+    <t>Std.Udecimal64</t>
+  </si>
+  <si>
+    <t>Bytes</t>
+  </si>
+  <si>
+    <t>Synonym</t>
+  </si>
+  <si>
+    <t>Std.Unit</t>
+  </si>
+  <si>
+    <t>Integer Types</t>
+  </si>
+  <si>
+    <t>Decimal Types</t>
+  </si>
+  <si>
+    <t>Money Types</t>
+  </si>
+  <si>
+    <t>Std.Money64</t>
+  </si>
+  <si>
+    <t>Std.Umoney64</t>
+  </si>
+  <si>
+    <t>Std.Money128</t>
+  </si>
+  <si>
+    <t>Std.Umoney128</t>
+  </si>
+  <si>
+    <t>Std.Umoney32</t>
+  </si>
+  <si>
+    <t>Std.Money32</t>
+  </si>
+  <si>
+    <t>Std.Money</t>
+  </si>
+  <si>
+    <t>Std.Umoney</t>
+  </si>
+  <si>
+    <t>Decimals</t>
+  </si>
+  <si>
+    <t>monetaryItemType</t>
+  </si>
+  <si>
+    <t>* const TETN_Money         =  3; # xbrli:monetaryItemType           3247</t>
+  </si>
+  <si>
+    <t>* const TETN_Decimal       =  4; # xbrli:decimalItemType              46            decimal   1</t>
+  </si>
+  <si>
+    <t>Information Only</t>
+  </si>
+  <si>
+    <t>Optional Settings - N.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       If D is 0, values have no decimal point or fractional part. The maximum number of digits (M) for DECIMAL is 65. The maximum number of supported decimals (D) is 30. If D is omitted, the default is 0. If M is omitted, the default is 10.</t>
+  </si>
+  <si>
+    <t>N.4</t>
+  </si>
+  <si>
+    <t>N.5</t>
+  </si>
+  <si>
+    <t>N.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-9,999,999,999,999,999.99 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-9,223,372,036,854,775,808 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9,223,372,036,854,775,807 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18,446,744,073,709,551,615 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9,999,999,999,999,999.99 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">99,999,999,999,999,999.99 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">36x9s .99 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 36x9s .99 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Not suitable for a crypto currency with many decimals e.g. 18 for Ether. Could handle PIO with 12 places of decimals up to 6 integer digits i.e. -999,999 to +999,999 PIOs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Max and min values are for the underlying integer for those types with implied decimals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       The MySQL DECIMAL[(M[,D])] type is: A packed “exact” fixed-point number. M is the total number of digits (the precision) and D is the number of digits after the decimal point (the scale). The decimal point and (for negative numbers) the - sign are not counted in M.</t>
+  </si>
+  <si>
+    <t>integerItemType</t>
+  </si>
+  <si>
+    <t>positiveIntegerItemType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Max and min values may be used to define common versions of the integer, decimal, and money types as follows:</t>
+  </si>
+  <si>
+    <t>* const TETN_NonZeroDecimal=  5; # xbrli:nonZeroDecimal                1</t>
+  </si>
+  <si>
+    <t>Digits N.3</t>
+  </si>
+  <si>
+    <t>Incl
+N.2</t>
+  </si>
+  <si>
+    <t>Excl
+N.2</t>
+  </si>
+  <si>
+    <r>
+      <t>N.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Range values shown are for full base 10 digits accuracy. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Base 10 digits of full precision i.e. for 0 to 9 range of the digit. Digits of the integer part of Decimal and Money types with implied decimals is the digits value less the decimals value.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Incl (include) and Excl (exclude) values may be a single underlying integer number, or an array of them enclosed within []s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Optional Settings are those which can be varied by an app or ontology to create a different version of the data type to suit particular app/ontology needs. Doing this will create (or reuse) an extra entry in the DataTypes table with the optional seetings appended to the name as a [] enclosed array</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">       • positive number: Min of 1 with either a signed or unsigned type but preferably the unsigned one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       • non negative number: Min of 0 with either a signed or unsigned type but preferably the unsigned one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       • negative number: Max of -1 with a signed type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       • zero number: Incl of 0 or could also use Min and Max of 0 with either a signed or unsigned type but preferably the unsigned one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       • non zero number: Encl of 0</t>
+  </si>
+  <si>
+    <t>DateTime Types</t>
+  </si>
+  <si>
+    <t>Std.DateTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1970.01.01 </t>
+  </si>
+  <si>
+    <t>2106.02.07 06:28:15</t>
+  </si>
+  <si>
+    <t>Std.DateTime64</t>
+  </si>
+  <si>
+    <t>Std.DateTime32</t>
+  </si>
+  <si>
+    <t>292277026596.12.04 15:30:08</t>
+  </si>
+  <si>
+    <t>SSIM_DTB_Std | SSIM_DTB_Number</t>
+  </si>
+  <si>
+    <t>SSIM_DTB_Std | SSIM_DTB_Money</t>
+  </si>
+  <si>
+    <t>SSIM_DTB_Std | SSIM_DTB_DateTime</t>
+  </si>
+  <si>
+    <t>N.7</t>
+  </si>
+  <si>
+    <r>
+      <t>N.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The money data types parallel the decimal types but are separate for name clarity especially when being used in complex data types</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Range in trillions is -9,999,999 to 9,999,999 I.e. millions of trillions which is sufficient for all normal business or world economy FIAT money numbers unless perhaps for a currency undergoing extreme hyperinflation.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Range is sufficient for a FIAT currency undergoing extreme hyperinflation, or for a cryptocurrency with many places of decimals such as 18 for Ether, or 12 for PIO</t>
+    </r>
+  </si>
+  <si>
+    <t>Unsigned 32 bit integer unix style UTC date time - seconds from 1970.01.01</t>
+  </si>
+  <si>
+    <t>Unsigned 64 bit integer unix style UTC date time - seconds from 1970.01.01</t>
+  </si>
+  <si>
+    <t>dateItemType</t>
+  </si>
+  <si>
+    <t>Signed 64 bit int</t>
+  </si>
+  <si>
+    <t>Unsigned 64 bit int</t>
+  </si>
+  <si>
+    <t>Signed 128 bit int</t>
+  </si>
+  <si>
+    <t>Unsigned 128 bit int</t>
+  </si>
+  <si>
+    <t>Signed 8 bit int</t>
+  </si>
+  <si>
+    <t>Unsigned 8 bit int</t>
+  </si>
+  <si>
+    <t>Signed 16 bit int</t>
+  </si>
+  <si>
+    <t>Unsigned 16 bit int</t>
+  </si>
+  <si>
+    <t>Signed 32 bit int</t>
+  </si>
+  <si>
+    <t>Unsigned 32 bit int</t>
+  </si>
+  <si>
+    <t>Signed 32 bit int with implied decimals</t>
+  </si>
+  <si>
+    <t>Unsigned 32 bit intr with implied decimals</t>
+  </si>
+  <si>
+    <t>Signed 64 bit int with implied decimals</t>
+  </si>
+  <si>
+    <t>Unsigned 64 bit int with implied decimals</t>
+  </si>
+  <si>
+    <t>Signed 128 bit int with implied decimals</t>
+  </si>
+  <si>
+    <t>Unsigned 128 bit int with implied decimals</t>
+  </si>
+  <si>
+    <t>Std.DateYear</t>
+  </si>
+  <si>
+    <t>-32768.1</t>
+  </si>
+  <si>
+    <t>32,767.12</t>
+  </si>
+  <si>
+    <t>-32768.1.1</t>
+  </si>
+  <si>
+    <t>32,767.12,31</t>
+  </si>
+  <si>
+    <t>Std.DateYMD</t>
+  </si>
+  <si>
+    <t>Std.DateYM</t>
+  </si>
+  <si>
+    <t>Std.DateYMDH</t>
+  </si>
+  <si>
+    <t>-32768.1.1:0</t>
+  </si>
+  <si>
+    <t>32,767.12,31:23</t>
+  </si>
+  <si>
+    <t>Std.DateYMDHM</t>
+  </si>
+  <si>
+    <t>-32768.1.1:0:0</t>
+  </si>
+  <si>
+    <t>32,767.12,31:23:59</t>
+  </si>
+  <si>
+    <t>Year and Month packed into 3 bytes, Month 1 to 12 in byte 3</t>
+  </si>
+  <si>
+    <t>Year, Month, Day packed into 4 bytes, Day 1 to 31 in byte 4</t>
+  </si>
+  <si>
+    <t>Std.DateYMDHMS</t>
+  </si>
+  <si>
+    <t>-32768.1.1:0:0:0</t>
+  </si>
+  <si>
+    <t>32,767.12,31:23:59:59</t>
+  </si>
+  <si>
+    <t>Above + Minute 0 to 59 in byte 6</t>
+  </si>
+  <si>
+    <t>Above + Seconds 0 to 59 (60 when leap seconds occur) in byte 7</t>
+  </si>
+  <si>
+    <t>Above + Hour 0 to 23 in byte 5</t>
+  </si>
+  <si>
+    <t>32,767.12,31:23:59:999</t>
+  </si>
+  <si>
+    <t>32,767.12,31:23:59:999999</t>
+  </si>
+  <si>
+    <t>32,767.12,31:23:59:999999999</t>
+  </si>
+  <si>
+    <t>Std.DateYMDHMSMil</t>
+  </si>
+  <si>
+    <t>Std.DateYMDHMSMic</t>
+  </si>
+  <si>
+    <t>Std.DateYMDHMSNan</t>
+  </si>
+  <si>
+    <t>Std.DateYMDHMS 7 bytes + Milliseconds 0 to 999 in 2 bytes, 8 and 9</t>
+  </si>
+  <si>
+    <t>Std.DateYMDHMS 7 bytes + Microseconds 0 to 999,999 in 3 bytes, 8 to 10</t>
+  </si>
+  <si>
+    <t>Std.DateYMDHMS 7 bytes + Nanoseconds 0 to 999,999,999 in 4 bytes, 8 to 11</t>
+  </si>
+  <si>
+    <t>Year for years before 1970 including BCE years. See Base.DateTime for a text date date type</t>
+  </si>
+  <si>
+    <t>* const TETN_Date          =  8; # xbrli:dateItemType                 36</t>
+  </si>
+  <si>
+    <t>* const TETN_Year          = 10; # xbrli:gYearItemType</t>
+  </si>
+  <si>
+    <t>* const TETN_YearMonth     = 11; # xbrli:gYearMonthItemType</t>
+  </si>
+  <si>
+    <t>gYearItemType</t>
+  </si>
+  <si>
+    <t>gYearMonthItemType</t>
+  </si>
+  <si>
+    <t>Boolean Type</t>
+  </si>
+  <si>
+    <t>Std.Bool</t>
+  </si>
+  <si>
+    <t>SSIM_DTB_Std | SSIM_DTB_Bool</t>
+  </si>
+  <si>
+    <t>Unsigned 8 bit int, 0 = false, 1 = true</t>
+  </si>
+  <si>
+    <t>booleanItemType</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>* const TETN_Boolean       =  7; # xbrli:booleanItemType              28</t>
+  </si>
+  <si>
+    <t>String Types</t>
+  </si>
+  <si>
+    <t>Std.String</t>
+  </si>
+  <si>
+    <t>SSIM_DTB_Std | SSIM_DTB_String</t>
+  </si>
+  <si>
+    <t>N.8</t>
+  </si>
+  <si>
+    <t>stringItemType</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <r>
+      <t>N.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Interpreation of characters is left to the app. If special character recognition is required a Json.String should be used.</t>
+    </r>
+  </si>
+  <si>
+    <t>* const TETN_String        =  6; # xbrli:stringItemType             1362            string   55</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.00.E+00"/>
+    <numFmt numFmtId="166" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -851,7 +1381,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -866,20 +1396,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -903,13 +1519,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>10</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>10</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>3417580</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>1520200</xdr:rowOff>
@@ -964,16 +1580,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>14298</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4772</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>238130</xdr:rowOff>
+      <xdr:rowOff>452443</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3431868</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3422342</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2598425</xdr:rowOff>
+      <xdr:rowOff>2812738</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1003,7 +1619,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="885836" y="2809880"/>
+          <a:off x="876310" y="3024193"/>
           <a:ext cx="3417570" cy="2360295"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1025,16 +1641,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>28585</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>23823</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>195276</xdr:rowOff>
+      <xdr:rowOff>419113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3446155</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3441393</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>841071</xdr:rowOff>
+      <xdr:rowOff>1064908</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1064,7 +1680,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="900123" y="5238764"/>
+          <a:off x="895361" y="5938851"/>
           <a:ext cx="3417570" cy="645795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1086,16 +1702,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19060</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9535</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>204787</xdr:rowOff>
+      <xdr:rowOff>381000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3436630</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3427105</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>850582</xdr:rowOff>
+      <xdr:rowOff>1026795</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1125,7 +1741,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="890598" y="6176962"/>
+          <a:off x="881073" y="7062788"/>
           <a:ext cx="3417570" cy="645795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1417,25 +2033,25 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.59765625" customWidth="1"/>
-    <col min="2" max="2" width="50.46484375" customWidth="1"/>
-    <col min="3" max="3" width="88.33203125" customWidth="1"/>
+    <col min="2" max="2" width="88.33203125" customWidth="1"/>
+    <col min="3" max="3" width="50.46484375" customWidth="1"/>
     <col min="4" max="4" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1443,79 +2059,79 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="42.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1523,27 +2139,27 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1560,103 +2176,103 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.19921875" customWidth="1"/>
-    <col min="2" max="2" width="48.59765625" customWidth="1"/>
-    <col min="3" max="3" width="82.53125" customWidth="1"/>
+    <col min="2" max="2" width="101.86328125" customWidth="1"/>
+    <col min="3" max="3" width="48.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="9"/>
+      <c r="A2" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="13"/>
+      <c r="A3" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="11"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="131.25" customHeight="1">
-      <c r="A6" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="210" customHeight="1">
-      <c r="A7" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="A6" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="232.15" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="91.5" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="83.65" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="9" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="73.150000000000006" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="72.75" customHeight="1">
-      <c r="A9" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="12"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" s="10"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" s="10"/>
+      <c r="A13" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1673,526 +2289,1985 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:R152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.86328125" customWidth="1"/>
-    <col min="4" max="5" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="78.06640625" customWidth="1"/>
-    <col min="7" max="7" width="19.3984375" customWidth="1"/>
-    <col min="8" max="8" width="19.9296875" customWidth="1"/>
-    <col min="9" max="9" width="11.265625" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" customWidth="1"/>
+    <col min="3" max="3" width="29.796875" customWidth="1"/>
+    <col min="4" max="4" width="5.1328125" customWidth="1"/>
+    <col min="5" max="5" width="5.59765625" customWidth="1"/>
+    <col min="6" max="6" width="5.19921875" customWidth="1"/>
+    <col min="7" max="7" width="7.1328125" customWidth="1"/>
+    <col min="8" max="8" width="6.19921875" customWidth="1"/>
+    <col min="9" max="9" width="6" style="32" customWidth="1"/>
+    <col min="10" max="10" width="4.46484375" style="16" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="12" max="12" width="25" customWidth="1"/>
+    <col min="13" max="13" width="5" customWidth="1"/>
+    <col min="14" max="14" width="3.796875" customWidth="1"/>
+    <col min="15" max="15" width="60.796875" customWidth="1"/>
+    <col min="16" max="16" width="19.9296875" customWidth="1"/>
+    <col min="17" max="17" width="11.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:18">
       <c r="A1" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="9"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="9"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="D5" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="J1" s="14"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="B5" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="H6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
+      <c r="D5" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="40"/>
+      <c r="M5" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="N5" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="O5" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q5" s="38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="41">
+        <v>0</v>
+      </c>
+      <c r="L8" s="41">
+        <v>1</v>
+      </c>
+      <c r="M8" s="42">
+        <v>1</v>
+      </c>
+      <c r="N8" s="42">
+        <v>1</v>
+      </c>
+      <c r="O8" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="P8" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q8" s="43" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" t="s">
+        <v>211</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="K10" s="3">
+        <f>-2^7</f>
+        <v>-128</v>
+      </c>
+      <c r="L10" s="2">
+        <f>2^7-1</f>
+        <v>127</v>
+      </c>
+      <c r="M10" s="22">
+        <f t="shared" ref="M10:M19" si="0">FLOOR(LOG10(L10),1)</f>
+        <v>2</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>225</v>
+      </c>
+      <c r="P10" s="1"/>
+      <c r="Q10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <f>2^8-1</f>
+        <v>255</v>
+      </c>
+      <c r="M11" s="22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>226</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="Q11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" t="s">
+        <v>211</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" s="3">
+        <f>-2^15</f>
+        <v>-32768</v>
+      </c>
+      <c r="L12" s="2">
+        <f>2^15-1</f>
+        <v>32767</v>
+      </c>
+      <c r="M12" s="22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N12" s="2">
+        <v>2</v>
+      </c>
+      <c r="O12" t="s">
+        <v>227</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" t="s">
+        <v>211</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <f>2^16-1</f>
+        <v>65535</v>
+      </c>
+      <c r="M13" s="22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N13" s="2">
+        <v>2</v>
+      </c>
+      <c r="O13" t="s">
+        <v>228</v>
+      </c>
+      <c r="P13" s="1"/>
+      <c r="Q13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" t="s">
+        <v>211</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" s="3">
+        <f>-2^31</f>
+        <v>-2147483648</v>
+      </c>
+      <c r="L14" s="2">
+        <f>2^31-1</f>
+        <v>2147483647</v>
+      </c>
+      <c r="M14" s="22">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N14" s="2">
+        <v>4</v>
+      </c>
+      <c r="O14" t="s">
+        <v>229</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q14" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="3">
-        <f xml:space="preserve"> -2147483648</f>
-        <v>-2147483648</v>
-      </c>
-      <c r="E7" s="2">
-        <f>2147483647</f>
-        <v>2147483647</v>
-      </c>
-      <c r="F7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="3">
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" t="s">
+        <v>211</v>
+      </c>
+      <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="2">
+      <c r="L15" s="2">
         <f>2^32-1</f>
         <v>4294967295</v>
       </c>
-      <c r="F8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>95</v>
-      </c>
-      <c r="H9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="C10" s="1"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="M15" s="22">
+        <f t="shared" ref="M15" si="1">FLOOR(LOG10(L15),1)+D15</f>
+        <v>9</v>
+      </c>
+      <c r="N15" s="2">
+        <v>4</v>
+      </c>
+      <c r="O15" t="s">
+        <v>230</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>134</v>
+      </c>
+      <c r="C16" t="s">
+        <v>211</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="M16" s="22">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N16" s="2">
+        <v>8</v>
+      </c>
+      <c r="O16" t="s">
+        <v>221</v>
+      </c>
+      <c r="P16" s="1"/>
+      <c r="Q16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>135</v>
+      </c>
+      <c r="C17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="M17" s="22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="N17" s="2">
+        <v>8</v>
+      </c>
+      <c r="O17" t="s">
+        <v>222</v>
+      </c>
+      <c r="P17" s="1"/>
+      <c r="Q17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>136</v>
+      </c>
+      <c r="C18" t="s">
+        <v>211</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="20">
+        <f>-2^127</f>
+        <v>-1.7014118346046923E+38</v>
+      </c>
+      <c r="L18" s="20">
+        <f>2^127-1</f>
+        <v>1.7014118346046923E+38</v>
+      </c>
+      <c r="M18" s="22">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="N18" s="2">
+        <v>16</v>
+      </c>
+      <c r="O18" t="s">
+        <v>223</v>
+      </c>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" t="s">
+        <v>211</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="20">
+        <f>2^128-1</f>
+        <v>3.4028236692093846E+38</v>
+      </c>
+      <c r="M19" s="22">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="N19" s="2">
+        <v>16</v>
+      </c>
+      <c r="O19" t="s">
+        <v>224</v>
+      </c>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="2"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D21" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+      <c r="J21" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="K21" s="34">
+        <v>-9999999.9900000002</v>
+      </c>
+      <c r="L21" s="34">
+        <v>9999999.9900000002</v>
+      </c>
+      <c r="M21" s="22">
+        <f>M14</f>
+        <v>9</v>
+      </c>
+      <c r="N21" s="2">
+        <v>4</v>
+      </c>
+      <c r="O21" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="K22" s="34">
+        <v>0</v>
+      </c>
+      <c r="L22" s="34">
+        <v>9999999.9900000002</v>
+      </c>
+      <c r="M22" s="22">
+        <f t="shared" ref="M22:M26" si="2">M15</f>
+        <v>9</v>
+      </c>
+      <c r="N22" s="2">
+        <v>4</v>
+      </c>
+      <c r="O22" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" t="s">
+        <v>211</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="M23" s="22">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N23" s="2">
+        <v>8</v>
+      </c>
+      <c r="O23" t="s">
+        <v>233</v>
+      </c>
+      <c r="P23" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" t="s">
+        <v>211</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="K24" s="34">
+        <v>0</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="M24" s="22">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="N24" s="2">
+        <v>8</v>
+      </c>
+      <c r="O24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" t="s">
+        <v>211</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="M25" s="22">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="N25" s="2">
+        <v>16</v>
+      </c>
+      <c r="O25" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="K26" s="34">
+        <v>0</v>
+      </c>
+      <c r="L26" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="M26" s="22">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="N26" s="2">
+        <v>16</v>
+      </c>
+      <c r="O26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" t="s">
+        <v>212</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="K28" s="34">
+        <v>-9999999.9900000002</v>
+      </c>
+      <c r="L28" s="34">
+        <v>9999999.9900000002</v>
+      </c>
+      <c r="M28" s="22">
+        <f>M14</f>
+        <v>9</v>
+      </c>
+      <c r="N28" s="2">
+        <v>4</v>
+      </c>
+      <c r="O28" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" t="s">
+        <v>212</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="K29" s="34">
+        <v>0</v>
+      </c>
+      <c r="L29" s="34">
+        <v>9999999.9900000002</v>
+      </c>
+      <c r="M29" s="22">
+        <f t="shared" ref="M29:M33" si="3">M15</f>
+        <v>9</v>
+      </c>
+      <c r="N29" s="2">
+        <v>4</v>
+      </c>
+      <c r="O29" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" t="s">
+        <v>212</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
+      <c r="I30" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="M30" s="22">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="N30" s="2">
+        <v>8</v>
+      </c>
+      <c r="O30" t="s">
+        <v>233</v>
+      </c>
+      <c r="P30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" t="s">
+        <v>212</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="K31" s="34">
+        <v>0</v>
+      </c>
+      <c r="L31" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="M31" s="22">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="N31" s="2">
+        <v>8</v>
+      </c>
+      <c r="O31" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" t="s">
+        <v>212</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2</v>
+      </c>
+      <c r="I32" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="L32" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="M32" s="22">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="N32" s="2">
+        <v>16</v>
+      </c>
+      <c r="O32" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" t="s">
+        <v>212</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="K33" s="34">
+        <v>0</v>
+      </c>
+      <c r="L33" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="M33" s="22">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="N33" s="2">
+        <v>16</v>
+      </c>
+      <c r="O33" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" t="s">
+        <v>205</v>
+      </c>
+      <c r="B35" t="s">
+        <v>209</v>
+      </c>
+      <c r="C35" t="s">
+        <v>213</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="K35" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="L35" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M35" s="22"/>
+      <c r="N35" s="2">
+        <v>4</v>
+      </c>
+      <c r="O35" t="s">
+        <v>218</v>
+      </c>
+      <c r="P35" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" t="s">
+        <v>208</v>
+      </c>
+      <c r="C36" t="s">
+        <v>213</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="K36" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="L36" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="M36" s="22"/>
+      <c r="N36" s="2">
+        <v>8</v>
+      </c>
+      <c r="O36" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" t="s">
+        <v>237</v>
+      </c>
+      <c r="C37" t="s">
+        <v>213</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="J37" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="K37" s="3">
+        <f>-2^15</f>
+        <v>-32768</v>
+      </c>
+      <c r="L37" s="2">
+        <f>2^15-1</f>
+        <v>32767</v>
+      </c>
+      <c r="M37" s="22"/>
+      <c r="N37" s="2">
+        <v>2</v>
+      </c>
+      <c r="O37" t="s">
+        <v>267</v>
+      </c>
+      <c r="P37" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" t="s">
+        <v>243</v>
+      </c>
+      <c r="C38" t="s">
+        <v>213</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="K38" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="L38" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="M38" s="22"/>
+      <c r="N38" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+      <c r="O38" t="s">
+        <v>250</v>
+      </c>
+      <c r="P38" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" t="s">
+        <v>242</v>
+      </c>
+      <c r="C39" t="s">
+        <v>213</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="K39" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="L39" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="M39" s="22"/>
+      <c r="N39" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+      <c r="O39" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" t="s">
+        <v>244</v>
+      </c>
+      <c r="C40" t="s">
+        <v>213</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="K40" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="L40" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="M40" s="22"/>
+      <c r="N40" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+      <c r="O40" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" t="s">
+        <v>247</v>
+      </c>
+      <c r="C41" t="s">
+        <v>213</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="K41" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="L41" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="M41" s="22"/>
+      <c r="N41" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+      <c r="O41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" t="s">
+        <v>252</v>
+      </c>
+      <c r="C42" t="s">
+        <v>213</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="K42" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="L42" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="M42" s="22"/>
+      <c r="N42" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+      <c r="O42" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" t="s">
+        <v>261</v>
+      </c>
+      <c r="C43" t="s">
+        <v>213</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="K43" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="L43" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="M43" s="22"/>
+      <c r="N43" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+      <c r="O43" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" t="s">
+        <v>262</v>
+      </c>
+      <c r="C44" t="s">
+        <v>213</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="K44" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="L44" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="M44" s="22"/>
+      <c r="N44" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+      <c r="O44" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" t="s">
+        <v>263</v>
+      </c>
+      <c r="C45" t="s">
+        <v>213</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="K45" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="L45" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="M45" s="22"/>
+      <c r="N45" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="O45" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="1"/>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
+        <v>281</v>
+      </c>
+      <c r="C47" t="s">
+        <v>282</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="K47" s="34"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s">
+        <v>84</v>
+      </c>
+      <c r="P47" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="D48" s="2"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="K48" s="34"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="2"/>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="D49" s="2"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="2"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="D50" s="2"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="2"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="D51" s="2"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="2"/>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="D52" s="2"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="2"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="D53" s="2"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="2"/>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="D54" s="2"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="2"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="D55" s="2"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="33"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="22"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="33"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="22"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="33"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="22"/>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="33"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="22"/>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="33"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="22"/>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="33"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="22"/>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="33"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="22"/>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="33"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="22"/>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="33"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="22"/>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="33"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="22"/>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="33"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="22"/>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="33"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="22"/>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="33"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="22"/>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="J71" s="17"/>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="J72" s="17"/>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="O73" s="21"/>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="4"/>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
+        <v>77</v>
+      </c>
+      <c r="O76" s="1"/>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
+        <v>78</v>
+      </c>
+      <c r="O77">
+        <f>LOG10(1000)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" t="s">
-        <v>63</v>
+        <v>191</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>64</v>
+        <v>287</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>65</v>
+        <v>279</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>66</v>
+        <v>268</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>68</v>
+        <v>269</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>69</v>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>74</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D5:E5"/>
+  <mergeCells count="18">
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2201,15 +4276,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985696F7-DD0B-4931-AD34-ADB48DA2CB86}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>115</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/SpreadSheets/SSIM Data Types.xlsx
+++ b/Docs/SpreadSheets/SSIM Data Types.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Pacio\Development\SSIM Proto\Docs\SpreadSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A0A8A4-B83C-40AC-B667-642FEC0D3A79}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F562DB6-CF0E-40E4-B80A-8E7032A7DC3D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="12075" tabRatio="688" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="12075" tabRatio="688" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="32" r:id="rId1"/>
     <sheet name="Json" sheetId="33" r:id="rId2"/>
-    <sheet name="Std" sheetId="29" r:id="rId3"/>
+    <sheet name="SSIM" sheetId="29" r:id="rId3"/>
     <sheet name="XML" sheetId="31" r:id="rId4"/>
+    <sheet name="XBRL" sheetId="34" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="353">
   <si>
     <t>Name</t>
   </si>
@@ -240,12 +241,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Min Value</t>
-  </si>
-  <si>
-    <t>Max Value</t>
-  </si>
-  <si>
     <t>From</t>
   </si>
   <si>
@@ -282,27 +277,6 @@
     <t>Base Data Types</t>
   </si>
   <si>
-    <t>Bits</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>A string of UTF-8 encoded charcaters</t>
-  </si>
-  <si>
-    <t>SSIM_DTB_Base | SSIM_DTB_String</t>
-  </si>
-  <si>
-    <t>SSIM_DTB_Base | SSIM_DTB_Blob</t>
-  </si>
-  <si>
-    <t>SSIM_DTB_Base | SSIM_DTB_File</t>
-  </si>
-  <si>
-    <t>A sequence of binary bytes - a 'blob' of data</t>
-  </si>
-  <si>
     <t>A file in binary form</t>
   </si>
   <si>
@@ -313,9 +287,6 @@
   </si>
   <si>
     <t>Json Data Types</t>
-  </si>
-  <si>
-    <t>https://www.json.org/</t>
   </si>
   <si>
     <r>
@@ -574,15 +545,6 @@
     </r>
   </si>
   <si>
-    <t>The Json data trypes are defined at</t>
-  </si>
-  <si>
-    <t>Standard (Std) Data Types</t>
-  </si>
-  <si>
-    <t>The Standard Data Types are more precise or efficient than the Base or Json ones, more IT or DB oriented, suitable for use with apps developed by programmers.</t>
-  </si>
-  <si>
     <t>Base.Null</t>
   </si>
   <si>
@@ -662,9 +624,6 @@
     </r>
   </si>
   <si>
-    <t>SSIM_DTB_Base | SSIM_DTB_DateTime | SSIM_DTB_TextData</t>
-  </si>
-  <si>
     <t>A base 10 number as commonly understood in text form, like a Json Number</t>
   </si>
   <si>
@@ -697,33 +656,12 @@
     <t>A UTC/GMT date and optionally time in text numeric form year first CCYY.MM.DD{ HH:MM{:SS}}</t>
   </si>
   <si>
-    <t>SSIM_DTB_Json | SSIM_DTB_String | SSIM_DTB_TextData</t>
-  </si>
-  <si>
-    <t>SSIM_DTB_Json | SSIM_DTB_Object | SSIM_DTB_TextData</t>
-  </si>
-  <si>
-    <t>SSIM_DTB_Json | SSIM_DTB_Array | SSIM_DTB_TextData</t>
-  </si>
-  <si>
-    <t>SSIM_DTB_Json | SSIM_DTB_Number | SSIM_DTB_TextData</t>
-  </si>
-  <si>
-    <t>SSIM_DTB_Base | SSIM_DTB_Number | SSIM_DTB_TextData</t>
-  </si>
-  <si>
-    <t>Std.Decimal</t>
-  </si>
-  <si>
     <t>Signed</t>
   </si>
   <si>
     <t>*</t>
   </si>
   <si>
-    <t>Note</t>
-  </si>
-  <si>
     <t>BIGINT</t>
   </si>
   <si>
@@ -733,75 +671,18 @@
     <t>BIGINT unsigned</t>
   </si>
   <si>
-    <t>Std.Int</t>
-  </si>
-  <si>
-    <t>Std.Int64</t>
-  </si>
-  <si>
-    <t>Std.Uint64</t>
-  </si>
-  <si>
-    <t>Std.Int128</t>
-  </si>
-  <si>
-    <t>Std.Uint128</t>
-  </si>
-  <si>
-    <t>Std.Int8</t>
-  </si>
-  <si>
-    <t>Std.Uint8</t>
-  </si>
-  <si>
     <t>TINYINT</t>
   </si>
   <si>
     <t>TINYINT unsigned</t>
   </si>
   <si>
-    <t>Std.Int16</t>
-  </si>
-  <si>
-    <t>Std.Uint16</t>
-  </si>
-  <si>
-    <t>Std.Int32</t>
-  </si>
-  <si>
-    <t>Std.Uint32</t>
-  </si>
-  <si>
-    <t>Std.Udecimal</t>
-  </si>
-  <si>
-    <t>Std.Decimal128</t>
-  </si>
-  <si>
-    <t>Std.Udecimal128</t>
-  </si>
-  <si>
-    <t>Std.Decimal32</t>
-  </si>
-  <si>
-    <t>Std.Udecimal32</t>
-  </si>
-  <si>
-    <t>Std.Decimal64</t>
-  </si>
-  <si>
-    <t>Std.Udecimal64</t>
-  </si>
-  <si>
     <t>Bytes</t>
   </si>
   <si>
     <t>Synonym</t>
   </si>
   <si>
-    <t>Std.Unit</t>
-  </si>
-  <si>
     <t>Integer Types</t>
   </si>
   <si>
@@ -811,30 +692,6 @@
     <t>Money Types</t>
   </si>
   <si>
-    <t>Std.Money64</t>
-  </si>
-  <si>
-    <t>Std.Umoney64</t>
-  </si>
-  <si>
-    <t>Std.Money128</t>
-  </si>
-  <si>
-    <t>Std.Umoney128</t>
-  </si>
-  <si>
-    <t>Std.Umoney32</t>
-  </si>
-  <si>
-    <t>Std.Money32</t>
-  </si>
-  <si>
-    <t>Std.Money</t>
-  </si>
-  <si>
-    <t>Std.Umoney</t>
-  </si>
-  <si>
     <t>Decimals</t>
   </si>
   <si>
@@ -848,9 +705,6 @@
   </si>
   <si>
     <t>Information Only</t>
-  </si>
-  <si>
-    <t>Optional Settings - N.1</t>
   </si>
   <si>
     <t xml:space="preserve">       If D is 0, values have no decimal point or fractional part. The maximum number of digits (M) for DECIMAL is 65. The maximum number of supported decimals (D) is 30. If D is omitted, the default is 0. If M is omitted, the default is 10.</t>
@@ -966,21 +820,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>N.1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Optional Settings are those which can be varied by an app or ontology to create a different version of the data type to suit particular app/ontology needs. Doing this will create (or reuse) an extra entry in the DataTypes table with the optional seetings appended to the name as a [] enclosed array</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">       • positive number: Min of 1 with either a signed or unsigned type but preferably the unsigned one</t>
   </si>
   <si>
@@ -999,31 +838,16 @@
     <t>DateTime Types</t>
   </si>
   <si>
-    <t>Std.DateTime</t>
-  </si>
-  <si>
     <t xml:space="preserve">1970.01.01 </t>
   </si>
   <si>
     <t>2106.02.07 06:28:15</t>
   </si>
   <si>
-    <t>Std.DateTime64</t>
-  </si>
-  <si>
-    <t>Std.DateTime32</t>
-  </si>
-  <si>
     <t>292277026596.12.04 15:30:08</t>
   </si>
   <si>
     <t>SSIM_DTB_Std | SSIM_DTB_Number</t>
-  </si>
-  <si>
-    <t>SSIM_DTB_Std | SSIM_DTB_Money</t>
-  </si>
-  <si>
-    <t>SSIM_DTB_Std | SSIM_DTB_DateTime</t>
   </si>
   <si>
     <t>N.7</t>
@@ -1074,12 +898,6 @@
     </r>
   </si>
   <si>
-    <t>Unsigned 32 bit integer unix style UTC date time - seconds from 1970.01.01</t>
-  </si>
-  <si>
-    <t>Unsigned 64 bit integer unix style UTC date time - seconds from 1970.01.01</t>
-  </si>
-  <si>
     <t>dateItemType</t>
   </si>
   <si>
@@ -1131,9 +949,6 @@
     <t>Unsigned 128 bit int with implied decimals</t>
   </si>
   <si>
-    <t>Std.DateYear</t>
-  </si>
-  <si>
     <t>-32768.1</t>
   </si>
   <si>
@@ -1146,54 +961,24 @@
     <t>32,767.12,31</t>
   </si>
   <si>
-    <t>Std.DateYMD</t>
-  </si>
-  <si>
-    <t>Std.DateYM</t>
-  </si>
-  <si>
-    <t>Std.DateYMDH</t>
-  </si>
-  <si>
     <t>-32768.1.1:0</t>
   </si>
   <si>
     <t>32,767.12,31:23</t>
   </si>
   <si>
-    <t>Std.DateYMDHM</t>
-  </si>
-  <si>
     <t>-32768.1.1:0:0</t>
   </si>
   <si>
     <t>32,767.12,31:23:59</t>
   </si>
   <si>
-    <t>Year and Month packed into 3 bytes, Month 1 to 12 in byte 3</t>
-  </si>
-  <si>
-    <t>Year, Month, Day packed into 4 bytes, Day 1 to 31 in byte 4</t>
-  </si>
-  <si>
-    <t>Std.DateYMDHMS</t>
-  </si>
-  <si>
     <t>-32768.1.1:0:0:0</t>
   </si>
   <si>
     <t>32,767.12,31:23:59:59</t>
   </si>
   <si>
-    <t>Above + Minute 0 to 59 in byte 6</t>
-  </si>
-  <si>
-    <t>Above + Seconds 0 to 59 (60 when leap seconds occur) in byte 7</t>
-  </si>
-  <si>
-    <t>Above + Hour 0 to 23 in byte 5</t>
-  </si>
-  <si>
     <t>32,767.12,31:23:59:999</t>
   </si>
   <si>
@@ -1203,27 +988,6 @@
     <t>32,767.12,31:23:59:999999999</t>
   </si>
   <si>
-    <t>Std.DateYMDHMSMil</t>
-  </si>
-  <si>
-    <t>Std.DateYMDHMSMic</t>
-  </si>
-  <si>
-    <t>Std.DateYMDHMSNan</t>
-  </si>
-  <si>
-    <t>Std.DateYMDHMS 7 bytes + Milliseconds 0 to 999 in 2 bytes, 8 and 9</t>
-  </si>
-  <si>
-    <t>Std.DateYMDHMS 7 bytes + Microseconds 0 to 999,999 in 3 bytes, 8 to 10</t>
-  </si>
-  <si>
-    <t>Std.DateYMDHMS 7 bytes + Nanoseconds 0 to 999,999,999 in 4 bytes, 8 to 11</t>
-  </si>
-  <si>
-    <t>Year for years before 1970 including BCE years. See Base.DateTime for a text date date type</t>
-  </si>
-  <si>
     <t>* const TETN_Date          =  8; # xbrli:dateItemType                 36</t>
   </si>
   <si>
@@ -1242,12 +1006,6 @@
     <t>Boolean Type</t>
   </si>
   <si>
-    <t>Std.Bool</t>
-  </si>
-  <si>
-    <t>SSIM_DTB_Std | SSIM_DTB_Bool</t>
-  </si>
-  <si>
     <t>Unsigned 8 bit int, 0 = false, 1 = true</t>
   </si>
   <si>
@@ -1260,15 +1018,6 @@
     <t>* const TETN_Boolean       =  7; # xbrli:booleanItemType              28</t>
   </si>
   <si>
-    <t>String Types</t>
-  </si>
-  <si>
-    <t>Std.String</t>
-  </si>
-  <si>
-    <t>SSIM_DTB_Std | SSIM_DTB_String</t>
-  </si>
-  <si>
     <t>N.8</t>
   </si>
   <si>
@@ -1278,8 +1027,26 @@
     <t>TEXT</t>
   </si>
   <si>
-    <r>
-      <t>N.7</t>
+    <t>* const TETN_String        =  6; # xbrli:stringItemType             1362            string   55</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+  </si>
+  <si>
+    <t>Unsigned 32 bit int unix style UTC date time - seconds from 1970.01.01</t>
+  </si>
+  <si>
+    <t>Unsigned 64 bit int unix style UTC date time - seconds from 1970.01.01</t>
+  </si>
+  <si>
+    <t>N.9</t>
+  </si>
+  <si>
+    <r>
+      <t>N.9</t>
     </r>
     <r>
       <rPr>
@@ -1293,7 +1060,496 @@
     </r>
   </si>
   <si>
-    <t>* const TETN_String        =  6; # xbrli:stringItemType             1362            string   55</t>
+    <t>Year for years before 1970 including BCE years</t>
+  </si>
+  <si>
+    <r>
+      <t>N.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> See Base.DateTime for a text data date type</t>
+    </r>
+  </si>
+  <si>
+    <t>floatItemType</t>
+  </si>
+  <si>
+    <t>doubleItemType</t>
+  </si>
+  <si>
+    <t>IEEE 32 bit (single precision) floating point number</t>
+  </si>
+  <si>
+    <t>IEEE 64 bit (double precision) floating point number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.175494351E-38 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.402823466E+38 </t>
+  </si>
+  <si>
+    <t>-1.7976931348623157E+308 to -2.2250738585072014E-308, 0, and 2.2250738585072014E-308 to 1.7976931348623157E+308</t>
+  </si>
+  <si>
+    <t>-2.2250738585072014E-308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7976931348623157E+308 </t>
+  </si>
+  <si>
+    <t>N.10</t>
+  </si>
+  <si>
+    <t>N.11</t>
+  </si>
+  <si>
+    <r>
+      <t>N.10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Permissible values are -3.402823466E+38 to -1.175494351E-38, 0, and 1.175494351E-38 to 3.402823466E+38. These are the theoretical limits, based on the IEEE standard. The actual range might be slightly smaller depending on hardware or operating system. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N.11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Permissible values are -1.7976931348623157E+308 to -2.2250738585072014E-308, 0, and 2.2250738585072014E-308 to 1.7976931348623157E+308. These are the theoretical limits, based on the IEEE standard. The actual range might be slightly smaller depending on  hardware or operating system. </t>
+    </r>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Attributes - N.1</t>
+  </si>
+  <si>
+    <r>
+      <t>N.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Attributes can be varied by an app or ontology to create a different version of the data type to suit particular app/ontology needs. Doing this will create (or reuse) an extra entry in the DataTypes table with the attributes appended to the name as a [] enclosed array</t>
+    </r>
+  </si>
+  <si>
+    <t>DB TypeN = SSIM_DT_TypeN_Base or 1</t>
+  </si>
+  <si>
+    <t>DB SubTypeN</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_Base_DateTime</t>
+  </si>
+  <si>
+    <t>DB TypeN = SSIM_DT_TypeN_Json or 2</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_Json_Number</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_Json_String</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_Json_Oject</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_Json_Array</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_Base_Null</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_Base_Number</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_Base_String</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_Base_Blob</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_Base_File</t>
+  </si>
+  <si>
+    <t>No
+te</t>
+  </si>
+  <si>
+    <t>The Standard SSIM Data Types are more precise or efficient than the Base or Json ones, more IT or DB oriented, suitable for use with apps developed by programmers.</t>
+  </si>
+  <si>
+    <t>Standard SSIM Data Types</t>
+  </si>
+  <si>
+    <t>No name prefix is used with the standard SSIM data types. All other types have a prefix e.g. Base. Or Json. Etc</t>
+  </si>
+  <si>
+    <t>Bool</t>
+  </si>
+  <si>
+    <t>Int8</t>
+  </si>
+  <si>
+    <t>Uint8</t>
+  </si>
+  <si>
+    <t>Int16</t>
+  </si>
+  <si>
+    <t>Uint16</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>Int32</t>
+  </si>
+  <si>
+    <t>Uint</t>
+  </si>
+  <si>
+    <t>Unit32</t>
+  </si>
+  <si>
+    <t>Int64</t>
+  </si>
+  <si>
+    <t>Uint64</t>
+  </si>
+  <si>
+    <t>Int128</t>
+  </si>
+  <si>
+    <t>Uint128</t>
+  </si>
+  <si>
+    <t>Decimal32[2]</t>
+  </si>
+  <si>
+    <t>Udecimal32[2]</t>
+  </si>
+  <si>
+    <t>Decimal[2]</t>
+  </si>
+  <si>
+    <t>Decimal64[2]</t>
+  </si>
+  <si>
+    <t>Udecimal[2]</t>
+  </si>
+  <si>
+    <t>Udecimal64[2]</t>
+  </si>
+  <si>
+    <t>Decimal128[2]</t>
+  </si>
+  <si>
+    <t>Udecimal128[2]</t>
+  </si>
+  <si>
+    <t>Money32[2]</t>
+  </si>
+  <si>
+    <t>Umoney32[2]</t>
+  </si>
+  <si>
+    <t>Money[2]</t>
+  </si>
+  <si>
+    <t>Money64[2]</t>
+  </si>
+  <si>
+    <t>Umoney[2]</t>
+  </si>
+  <si>
+    <t>Umoney64[2]</t>
+  </si>
+  <si>
+    <t>Money128[2]</t>
+  </si>
+  <si>
+    <t>Umoney128[2]</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>DateTime32</t>
+  </si>
+  <si>
+    <t>DateTime64</t>
+  </si>
+  <si>
+    <t>DateYear</t>
+  </si>
+  <si>
+    <t>DateYM</t>
+  </si>
+  <si>
+    <t>DateYMD</t>
+  </si>
+  <si>
+    <t>DateYMDH</t>
+  </si>
+  <si>
+    <t>DateYMDHM</t>
+  </si>
+  <si>
+    <t>DateYMDHMS</t>
+  </si>
+  <si>
+    <t>DateYMDHMSMil</t>
+  </si>
+  <si>
+    <t>DateYMDHMSMic</t>
+  </si>
+  <si>
+    <t>DateYMDHMS + Microseconds 0 to 999,999 in 3 bytes 8 to 10</t>
+  </si>
+  <si>
+    <t>DateYMDHMSNan</t>
+  </si>
+  <si>
+    <t>DateYMDHMS + Nanoseconds 0 to 999,999,999 in 4 bytes 8 to 11</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_Bool</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_Int8</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_UInt8</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_Int16</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_Uint16</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_Int32</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_Uint32</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_Int64</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_Uint64</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_Int128</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_Uint128</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_Decimal32</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_Udecimal32</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_Decimal</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_Udecimal</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_Decimal128</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_Udecimal128</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_Money32</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_Umoney32</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_Money</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_Umoney</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_Money128</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_Umoney128</t>
+  </si>
+  <si>
+    <t>String Type</t>
+  </si>
+  <si>
+    <t>A string of UTF-8 encoded characters</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_DateTime</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_DateTime64</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_DateYear</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_DateYM</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_DateYMD</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_DateYMDH</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_DateYMDHM</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_DateYMDHMS</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_DateYMDHMSMil</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_DateYMDHMSMic</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_DateYMDHMSNan</t>
+  </si>
+  <si>
+    <t>SSIM_DT_SubTypeN_String</t>
+  </si>
+  <si>
+    <t>Floating Point Types</t>
+  </si>
+  <si>
+    <t>None of the stttdard SSIM data types have any bits set</t>
+  </si>
+  <si>
+    <t>SSIM_DTB_TextData</t>
+  </si>
+  <si>
+    <t>The Json data trypes are defined at https://www.json.org/</t>
+  </si>
+  <si>
+    <t>All Json data types have Bits set to SSIM_DTB_TextData</t>
+  </si>
+  <si>
+    <t>Bits</t>
+  </si>
+  <si>
+    <t>All XML data types have Bits set to SSIM_DTB_TextData</t>
+  </si>
+  <si>
+    <t>DB TypeN = SSIM_DT_TypeN_SSIM or 3</t>
+  </si>
+  <si>
+    <t>DB TypeN = SSIM_DT_TypeN_XML or 4</t>
+  </si>
+  <si>
+    <t>XBRL Data Types</t>
+  </si>
+  <si>
+    <t>DB TypeN = SSIM_DT_TypeN_XBRL or 5</t>
+  </si>
+  <si>
+    <t>All XBRL data types have Bits set to SSIM_DTB_TextData</t>
+  </si>
+  <si>
+    <t>* = SSIM equivalent</t>
+  </si>
+  <si>
+    <t>DateYear + Month 1 to 12 in byte 3</t>
+  </si>
+  <si>
+    <t>DateYM + Day 1 to 31 in byte 4</t>
+  </si>
+  <si>
+    <t>DateYMD + Hour 0 to 23 in byte 5</t>
+  </si>
+  <si>
+    <t>DateYMDH + Minute 0 to 59 in byte 6</t>
+  </si>
+  <si>
+    <t>DateYMDHM + Seconds 0 to 59 (60 when leap seconds occur) in byte 7</t>
+  </si>
+  <si>
+    <t>DateYMDHMS + Milliseconds 0 to 999 in 2 bytes 8 and 9</t>
+  </si>
+  <si>
+    <t>A sequence of binary bytes - a blob of data</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is a base 10 integer plus optional fractional (decimal) part and optional exponent, in text form</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1381,7 +1637,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1475,8 +1731,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1485,16 +1754,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1520,15 +1780,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>10</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>10</xdr:rowOff>
+      <xdr:colOff>23822</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>204798</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3417580</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1520200</xdr:rowOff>
+      <xdr:colOff>3441392</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1724988</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1558,7 +1818,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="871548" y="904885"/>
+          <a:off x="895360" y="1471623"/>
           <a:ext cx="3417570" cy="1520190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1582,13 +1842,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4772</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>452443</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3422342</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>2812738</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1643,13 +1903,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>23823</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>419113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3441393</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>1064908</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1704,13 +1964,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9535</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>381000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3427105</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1026795</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2030,31 +2290,37 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.59765625" customWidth="1"/>
     <col min="2" max="2" width="88.33203125" customWidth="1"/>
-    <col min="3" max="3" width="50.46484375" customWidth="1"/>
-    <col min="4" max="4" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.53125" customWidth="1"/>
+    <col min="4" max="4" width="30.46484375" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -2062,104 +2328,114 @@
         <v>67</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="42.75" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="42.75" customHeight="1">
-      <c r="A6" s="5" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" t="s">
-        <v>117</v>
-      </c>
       <c r="C7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>334</v>
+      </c>
+      <c r="D7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
+        <v>351</v>
+      </c>
+      <c r="D10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2173,10 +2449,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2188,99 +2464,109 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="11"/>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="147.4" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="232.15" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="91.5" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="83.65" customHeight="1">
+      <c r="A11" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="11"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="131.25" customHeight="1">
-      <c r="A6" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="232.15" customHeight="1">
-      <c r="A7" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="91.5" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="83.65" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="9"/>
+      <c r="C11" s="9" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="9"/>
+      <c r="A13" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="9"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{5E666966-2E29-4258-B58A-E2635D5C61CE}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2289,36 +2575,36 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:R152"/>
+  <dimension ref="A1:R80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" customWidth="1"/>
-    <col min="2" max="2" width="13.796875" customWidth="1"/>
-    <col min="3" max="3" width="29.796875" customWidth="1"/>
+    <col min="1" max="1" width="16.06640625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="32.06640625" customWidth="1"/>
     <col min="4" max="4" width="5.1328125" customWidth="1"/>
-    <col min="5" max="5" width="5.59765625" customWidth="1"/>
-    <col min="6" max="6" width="5.19921875" customWidth="1"/>
-    <col min="7" max="7" width="7.1328125" customWidth="1"/>
-    <col min="8" max="8" width="6.19921875" customWidth="1"/>
-    <col min="9" max="9" width="6" style="32" customWidth="1"/>
+    <col min="5" max="5" width="4.1328125" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" customWidth="1"/>
+    <col min="7" max="7" width="5.53125" customWidth="1"/>
+    <col min="8" max="8" width="5.19921875" customWidth="1"/>
+    <col min="9" max="9" width="3.9296875" style="32" customWidth="1"/>
     <col min="10" max="10" width="4.46484375" style="16" customWidth="1"/>
     <col min="11" max="11" width="24" customWidth="1"/>
     <col min="12" max="12" width="25" customWidth="1"/>
     <col min="13" max="13" width="5" customWidth="1"/>
     <col min="14" max="14" width="3.796875" customWidth="1"/>
-    <col min="15" max="15" width="60.796875" customWidth="1"/>
-    <col min="16" max="16" width="19.9296875" customWidth="1"/>
+    <col min="15" max="15" width="56.33203125" customWidth="1"/>
+    <col min="16" max="16" width="19.59765625" customWidth="1"/>
     <col min="17" max="17" width="11.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="4" t="s">
-        <v>101</v>
+        <v>247</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2327,7 +2613,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="8" t="s">
-        <v>102</v>
+        <v>246</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -2335,624 +2621,569 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="8"/>
+      <c r="A3" s="8" t="s">
+        <v>339</v>
+      </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="8"/>
+      <c r="A4" s="8" t="s">
+        <v>248</v>
+      </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
+      <c r="D4" s="8"/>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="E5" s="37" t="s">
+      <c r="B7" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="I7" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="42"/>
+      <c r="M7" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="N7" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="O7" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="L8" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="K5" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="N5" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="O5" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="P5" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q5" s="38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="28" t="s">
-        <v>273</v>
-      </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" t="s">
-        <v>274</v>
-      </c>
-      <c r="B8" s="28"/>
-      <c r="C8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="41">
-        <v>0</v>
-      </c>
-      <c r="L8" s="41">
-        <v>1</v>
-      </c>
-      <c r="M8" s="42">
-        <v>1</v>
-      </c>
-      <c r="N8" s="42">
-        <v>1</v>
-      </c>
-      <c r="O8" s="43" t="s">
-        <v>276</v>
-      </c>
-      <c r="P8" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q8" s="43" t="s">
-        <v>278</v>
-      </c>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+      <c r="A9" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>138</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="B10" s="28"/>
       <c r="C10" t="s">
-        <v>211</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="K10" s="3">
+        <v>295</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="37">
+        <v>0</v>
+      </c>
+      <c r="L10" s="37">
+        <v>1</v>
+      </c>
+      <c r="M10" s="38">
+        <v>1</v>
+      </c>
+      <c r="N10" s="38">
+        <v>1</v>
+      </c>
+      <c r="O10" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="P10" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q10" s="39" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C12" t="s">
+        <v>296</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" s="3">
         <f>-2^7</f>
         <v>-128</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L12" s="2">
         <f>2^7-1</f>
         <v>127</v>
       </c>
-      <c r="M10" s="22">
-        <f t="shared" ref="M10:M19" si="0">FLOOR(LOG10(L10),1)</f>
+      <c r="M12" s="22">
+        <f t="shared" ref="M12:M21" si="0">FLOOR(LOG10(L12),1)</f>
         <v>2</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N12" s="2">
         <v>1</v>
       </c>
-      <c r="O10" t="s">
-        <v>225</v>
-      </c>
-      <c r="P10" s="1"/>
-      <c r="Q10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" t="s">
-        <v>211</v>
-      </c>
-      <c r="K11" s="3">
+      <c r="O12" t="s">
+        <v>168</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" t="s">
+        <v>297</v>
+      </c>
+      <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L13" s="2">
         <f>2^8-1</f>
         <v>255</v>
       </c>
-      <c r="M11" s="22">
+      <c r="M13" s="22">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N13" s="2">
         <v>1</v>
       </c>
-      <c r="O11" t="s">
-        <v>226</v>
-      </c>
-      <c r="P11" s="1"/>
-      <c r="Q11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" t="s">
-        <v>211</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="O13" t="s">
+        <v>169</v>
+      </c>
+      <c r="P13" s="1"/>
+      <c r="Q13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" t="s">
+        <v>298</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" s="3">
         <f>-2^15</f>
         <v>-32768</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L14" s="2">
         <f>2^15-1</f>
         <v>32767</v>
       </c>
-      <c r="M12" s="22">
+      <c r="M14" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N14" s="2">
         <v>2</v>
       </c>
-      <c r="O12" t="s">
-        <v>227</v>
-      </c>
-      <c r="P12" s="1"/>
-      <c r="Q12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" t="s">
-        <v>211</v>
-      </c>
-      <c r="K13" s="3">
+      <c r="O14" t="s">
+        <v>170</v>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="Q14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C15" t="s">
+        <v>299</v>
+      </c>
+      <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L15" s="2">
         <f>2^16-1</f>
         <v>65535</v>
       </c>
-      <c r="M13" s="22">
+      <c r="M15" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N15" s="2">
         <v>2</v>
       </c>
-      <c r="O13" t="s">
-        <v>228</v>
-      </c>
-      <c r="P13" s="1"/>
-      <c r="Q13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" t="s">
-        <v>144</v>
-      </c>
-      <c r="B14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" t="s">
-        <v>211</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="O15" t="s">
+        <v>171</v>
+      </c>
+      <c r="P15" s="1"/>
+      <c r="Q15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C16" t="s">
+        <v>300</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="3">
         <f>-2^31</f>
         <v>-2147483648</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L16" s="2">
         <f>2^31-1</f>
         <v>2147483647</v>
       </c>
-      <c r="M14" s="22">
+      <c r="M16" s="22">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N16" s="2">
         <v>4</v>
       </c>
-      <c r="O14" t="s">
-        <v>229</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" t="s">
-        <v>211</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="O16" t="s">
+        <v>172</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" t="s">
+        <v>301</v>
+      </c>
+      <c r="K17" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L17" s="2">
         <f>2^32-1</f>
         <v>4294967295</v>
       </c>
-      <c r="M15" s="22">
-        <f t="shared" ref="M15" si="1">FLOOR(LOG10(L15),1)+D15</f>
+      <c r="M17" s="22">
+        <f t="shared" ref="M17" si="1">FLOOR(LOG10(L17),1)+D17</f>
         <v>9</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N17" s="2">
         <v>4</v>
       </c>
-      <c r="O15" t="s">
-        <v>230</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" t="s">
-        <v>211</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="L16" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="M16" s="22">
+      <c r="O17" t="s">
+        <v>173</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" t="s">
+        <v>302</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="M18" s="22">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N18" s="2">
         <v>8</v>
       </c>
-      <c r="O16" t="s">
-        <v>221</v>
-      </c>
-      <c r="P16" s="1"/>
-      <c r="Q16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" t="s">
-        <v>211</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="O18" t="s">
+        <v>164</v>
+      </c>
+      <c r="P18" s="1"/>
+      <c r="Q18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" t="s">
+        <v>303</v>
+      </c>
+      <c r="K19" s="3">
         <v>0</v>
       </c>
-      <c r="L17" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="M17" s="22">
+      <c r="L19" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="M19" s="22">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N19" s="2">
         <v>8</v>
       </c>
-      <c r="O17" t="s">
-        <v>222</v>
-      </c>
-      <c r="P17" s="1"/>
-      <c r="Q17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" t="s">
-        <v>211</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="K18" s="20">
+      <c r="O19" t="s">
+        <v>165</v>
+      </c>
+      <c r="P19" s="1"/>
+      <c r="Q19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C20" t="s">
+        <v>304</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" s="20">
         <f>-2^127</f>
         <v>-1.7014118346046923E+38</v>
       </c>
-      <c r="L18" s="20">
+      <c r="L20" s="20">
         <f>2^127-1</f>
         <v>1.7014118346046923E+38</v>
       </c>
-      <c r="M18" s="22">
+      <c r="M20" s="22">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N20" s="2">
         <v>16</v>
       </c>
-      <c r="O18" t="s">
-        <v>223</v>
-      </c>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" t="s">
-        <v>211</v>
-      </c>
-      <c r="K19" s="3">
+      <c r="O20" t="s">
+        <v>166</v>
+      </c>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" t="s">
+        <v>261</v>
+      </c>
+      <c r="C21" t="s">
+        <v>305</v>
+      </c>
+      <c r="K21" s="3">
         <v>0</v>
       </c>
-      <c r="L19" s="20">
+      <c r="L21" s="20">
         <f>2^128-1</f>
         <v>3.4028236692093846E+38</v>
       </c>
-      <c r="M19" s="22">
+      <c r="M21" s="22">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N21" s="2">
         <v>16</v>
       </c>
-      <c r="O19" t="s">
-        <v>224</v>
-      </c>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="2"/>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C21" t="s">
-        <v>211</v>
-      </c>
-      <c r="D21" s="2">
-        <v>2</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="K21" s="34">
-        <v>-9999999.9900000002</v>
-      </c>
-      <c r="L21" s="34">
-        <v>9999999.9900000002</v>
-      </c>
-      <c r="M21" s="22">
-        <f>M14</f>
-        <v>9</v>
-      </c>
-      <c r="N21" s="2">
-        <v>4</v>
-      </c>
       <c r="O21" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>131</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" t="s">
-        <v>150</v>
-      </c>
-      <c r="C22" t="s">
-        <v>211</v>
-      </c>
-      <c r="D22" s="2">
-        <v>2</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="K22" s="34">
-        <v>0</v>
-      </c>
-      <c r="L22" s="34">
-        <v>9999999.9900000002</v>
-      </c>
-      <c r="M22" s="22">
-        <f t="shared" ref="M22:M26" si="2">M15</f>
-        <v>9</v>
-      </c>
-      <c r="N22" s="2">
-        <v>4</v>
-      </c>
-      <c r="O22" t="s">
-        <v>232</v>
-      </c>
+      <c r="A22" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="2"/>
+      <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" t="s">
-        <v>151</v>
+        <v>262</v>
       </c>
       <c r="C23" t="s">
-        <v>211</v>
+        <v>306</v>
       </c>
       <c r="D23" s="2">
         <v>2</v>
       </c>
-      <c r="I23" s="32" t="s">
+      <c r="J23" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" s="34">
+        <v>-9999999.9900000002</v>
+      </c>
+      <c r="L23" s="34">
+        <v>9999999.9900000002</v>
+      </c>
+      <c r="M23" s="22">
+        <f>M16</f>
+        <v>9</v>
+      </c>
+      <c r="N23" s="2">
+        <v>4</v>
+      </c>
+      <c r="O23" t="s">
         <v>174</v>
       </c>
-      <c r="J23" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="L23" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="M23" s="22">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="N23" s="2">
-        <v>8</v>
-      </c>
-      <c r="O23" t="s">
-        <v>233</v>
-      </c>
-      <c r="P23" t="s">
-        <v>79</v>
-      </c>
       <c r="Q23" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>146</v>
-      </c>
-      <c r="B24" t="s">
-        <v>152</v>
+        <v>263</v>
       </c>
       <c r="C24" t="s">
-        <v>211</v>
+        <v>307</v>
       </c>
       <c r="D24" s="2">
         <v>2</v>
@@ -2963,59 +3194,71 @@
       <c r="K24" s="34">
         <v>0</v>
       </c>
-      <c r="L24" s="19" t="s">
-        <v>182</v>
+      <c r="L24" s="34">
+        <v>9999999.9900000002</v>
       </c>
       <c r="M24" s="22">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" ref="M24:M28" si="2">M17</f>
+        <v>9</v>
       </c>
       <c r="N24" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O24" t="s">
-        <v>234</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>147</v>
+        <v>264</v>
+      </c>
+      <c r="B25" t="s">
+        <v>265</v>
       </c>
       <c r="C25" t="s">
-        <v>211</v>
+        <v>308</v>
       </c>
       <c r="D25" s="2">
         <v>2</v>
       </c>
+      <c r="I25" s="32" t="s">
+        <v>125</v>
+      </c>
       <c r="J25" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="K25" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="K25" s="19" t="s">
-        <v>184</v>
-      </c>
       <c r="L25" s="19" t="s">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="M25" s="22">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="N25" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O25" t="s">
-        <v>235</v>
+        <v>176</v>
+      </c>
+      <c r="P25" t="s">
+        <v>77</v>
       </c>
       <c r="Q25" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>148</v>
+        <v>266</v>
+      </c>
+      <c r="B26" t="s">
+        <v>267</v>
       </c>
       <c r="C26" t="s">
-        <v>211</v>
+        <v>309</v>
       </c>
       <c r="D26" s="2">
         <v>2</v>
@@ -3027,138 +3270,129 @@
         <v>0</v>
       </c>
       <c r="L26" s="19" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="M26" s="22">
         <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="N26" s="2">
+        <v>8</v>
+      </c>
+      <c r="O26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" t="s">
+        <v>268</v>
+      </c>
+      <c r="C27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M27" s="22">
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N27" s="2">
         <v>16</v>
       </c>
-      <c r="O26" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="33" t="s">
-        <v>175</v>
+      <c r="O27" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>269</v>
       </c>
       <c r="C28" t="s">
-        <v>212</v>
+        <v>311</v>
       </c>
       <c r="D28" s="2">
         <v>2</v>
       </c>
-      <c r="J28" s="16" t="s">
-        <v>128</v>
-      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
       <c r="K28" s="34">
-        <v>-9999999.9900000002</v>
-      </c>
-      <c r="L28" s="34">
-        <v>9999999.9900000002</v>
+        <v>0</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>134</v>
       </c>
       <c r="M28" s="22">
-        <f>M14</f>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>38</v>
       </c>
       <c r="N28" s="2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="O28" t="s">
-        <v>231</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" t="s">
-        <v>163</v>
-      </c>
-      <c r="C29" t="s">
-        <v>212</v>
-      </c>
-      <c r="D29" s="2">
-        <v>2</v>
+      <c r="A29" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="K29" s="34">
-        <v>0</v>
-      </c>
-      <c r="L29" s="34">
-        <v>9999999.9900000002</v>
-      </c>
-      <c r="M29" s="22">
-        <f t="shared" ref="M29:M33" si="3">M15</f>
-        <v>9</v>
-      </c>
-      <c r="N29" s="2">
-        <v>4</v>
-      </c>
-      <c r="O29" t="s">
-        <v>232</v>
+      <c r="I29" s="33" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>165</v>
-      </c>
-      <c r="B30" t="s">
-        <v>159</v>
+        <v>270</v>
       </c>
       <c r="C30" t="s">
-        <v>212</v>
+        <v>312</v>
       </c>
       <c r="D30" s="2">
         <v>2</v>
       </c>
-      <c r="I30" s="32" t="s">
-        <v>176</v>
-      </c>
       <c r="J30" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="K30" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="L30" s="19" t="s">
-        <v>181</v>
+        <v>108</v>
+      </c>
+      <c r="K30" s="34">
+        <v>-9999999.9900000002</v>
+      </c>
+      <c r="L30" s="34">
+        <v>9999999.9900000002</v>
       </c>
       <c r="M30" s="22">
-        <f t="shared" si="3"/>
-        <v>18</v>
+        <f>M16</f>
+        <v>9</v>
       </c>
       <c r="N30" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O30" t="s">
-        <v>233</v>
-      </c>
-      <c r="P30" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" t="s">
-        <v>166</v>
-      </c>
-      <c r="B31" t="s">
-        <v>160</v>
+        <v>271</v>
       </c>
       <c r="C31" t="s">
-        <v>212</v>
+        <v>313</v>
       </c>
       <c r="D31" s="2">
         <v>2</v>
@@ -3169,59 +3403,68 @@
       <c r="K31" s="34">
         <v>0</v>
       </c>
-      <c r="L31" s="19" t="s">
-        <v>182</v>
+      <c r="L31" s="34">
+        <v>9999999.9900000002</v>
       </c>
       <c r="M31" s="22">
-        <f t="shared" si="3"/>
-        <v>19</v>
+        <f t="shared" ref="M31:M35" si="3">M17</f>
+        <v>9</v>
       </c>
       <c r="N31" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O31" t="s">
-        <v>234</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>272</v>
+      </c>
+      <c r="B32" t="s">
+        <v>273</v>
       </c>
       <c r="C32" t="s">
-        <v>212</v>
+        <v>314</v>
       </c>
       <c r="D32" s="2">
         <v>2</v>
       </c>
       <c r="I32" s="32" t="s">
-        <v>214</v>
+        <v>127</v>
       </c>
       <c r="J32" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="K32" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="K32" s="19" t="s">
-        <v>184</v>
-      </c>
       <c r="L32" s="19" t="s">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="M32" s="22">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="N32" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O32" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+        <v>176</v>
+      </c>
+      <c r="P32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>162</v>
+        <v>274</v>
+      </c>
+      <c r="B33" t="s">
+        <v>275</v>
       </c>
       <c r="C33" t="s">
-        <v>212</v>
+        <v>315</v>
       </c>
       <c r="D33" s="2">
         <v>2</v>
@@ -3233,385 +3476,435 @@
         <v>0</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="M33" s="22">
         <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="N33" s="2">
+        <v>8</v>
+      </c>
+      <c r="O33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" t="s">
+        <v>276</v>
+      </c>
+      <c r="C34" t="s">
+        <v>316</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="K34" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="L34" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M34" s="22">
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N34" s="2">
         <v>16</v>
       </c>
-      <c r="O33" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="2"/>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="O34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>205</v>
-      </c>
-      <c r="B35" t="s">
-        <v>209</v>
+        <v>277</v>
       </c>
       <c r="C35" t="s">
-        <v>213</v>
-      </c>
-      <c r="D35" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="K35" s="34" t="s">
-        <v>206</v>
+      <c r="K35" s="34">
+        <v>0</v>
       </c>
       <c r="L35" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="M35" s="22"/>
+        <v>134</v>
+      </c>
+      <c r="M35" s="22">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
       <c r="N35" s="2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="O35" t="s">
-        <v>218</v>
-      </c>
-      <c r="P35" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" t="s">
-        <v>208</v>
-      </c>
-      <c r="C36" t="s">
-        <v>213</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="D36" s="2"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="K36" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="L36" s="19" t="s">
-        <v>210</v>
-      </c>
+      <c r="K36" s="34"/>
+      <c r="L36" s="19"/>
       <c r="M36" s="22"/>
-      <c r="N36" s="2">
-        <v>8</v>
-      </c>
-      <c r="O36" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>237</v>
+        <v>278</v>
+      </c>
+      <c r="B37" t="s">
+        <v>279</v>
       </c>
       <c r="C37" t="s">
-        <v>213</v>
+        <v>320</v>
       </c>
       <c r="D37" s="2"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-      <c r="J37" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="K37" s="3">
-        <f>-2^15</f>
-        <v>-32768</v>
-      </c>
-      <c r="L37" s="2">
-        <f>2^15-1</f>
-        <v>32767</v>
+      <c r="K37" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="L37" s="19" t="s">
+        <v>156</v>
       </c>
       <c r="M37" s="22"/>
       <c r="N37" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O37" t="s">
-        <v>267</v>
+        <v>209</v>
       </c>
       <c r="P37" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="C38" t="s">
-        <v>213</v>
+        <v>321</v>
       </c>
       <c r="D38" s="2"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="K38" s="34" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="L38" s="19" t="s">
-        <v>239</v>
+        <v>157</v>
       </c>
       <c r="M38" s="22"/>
       <c r="N38" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O38" t="s">
-        <v>250</v>
-      </c>
-      <c r="P38" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="C39" t="s">
-        <v>213</v>
+        <v>322</v>
       </c>
       <c r="D39" s="2"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="K39" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="L39" s="19" t="s">
-        <v>241</v>
+      <c r="I39" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="K39" s="3">
+        <f>-2^15</f>
+        <v>-32768</v>
+      </c>
+      <c r="L39" s="2">
+        <f>2^15-1</f>
+        <v>32767</v>
       </c>
       <c r="M39" s="22"/>
       <c r="N39" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O39" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+        <v>213</v>
+      </c>
+      <c r="P39" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="C40" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
       <c r="D40" s="2"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="K40" s="34" t="s">
-        <v>245</v>
+        <v>180</v>
       </c>
       <c r="L40" s="19" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
       <c r="M40" s="22"/>
       <c r="N40" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O40" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
+        <v>345</v>
+      </c>
+      <c r="P40" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="C41" t="s">
-        <v>213</v>
+        <v>324</v>
       </c>
       <c r="D41" s="2"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="K41" s="34" t="s">
-        <v>248</v>
+        <v>182</v>
       </c>
       <c r="L41" s="19" t="s">
-        <v>249</v>
+        <v>183</v>
       </c>
       <c r="M41" s="22"/>
       <c r="N41" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O41" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="C42" t="s">
-        <v>213</v>
+        <v>325</v>
       </c>
       <c r="D42" s="2"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="K42" s="34" t="s">
-        <v>253</v>
+        <v>184</v>
       </c>
       <c r="L42" s="19" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="M42" s="22"/>
       <c r="N42" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O42" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="C43" t="s">
-        <v>213</v>
+        <v>326</v>
       </c>
       <c r="D43" s="2"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="K43" s="34" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="L43" s="19" t="s">
-        <v>258</v>
+        <v>187</v>
       </c>
       <c r="M43" s="22"/>
       <c r="N43" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O43" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="C44" t="s">
-        <v>213</v>
+        <v>327</v>
       </c>
       <c r="D44" s="2"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="K44" s="34" t="s">
-        <v>253</v>
+        <v>188</v>
       </c>
       <c r="L44" s="19" t="s">
-        <v>259</v>
+        <v>189</v>
       </c>
       <c r="M44" s="22"/>
       <c r="N44" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O44" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="C45" t="s">
-        <v>213</v>
+        <v>328</v>
       </c>
       <c r="D45" s="2"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="K45" s="34" t="s">
-        <v>253</v>
+        <v>188</v>
       </c>
       <c r="L45" s="19" t="s">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="M45" s="22"/>
       <c r="N45" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O45" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="4" t="s">
-        <v>280</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" t="s">
+        <v>288</v>
+      </c>
+      <c r="C46" t="s">
+        <v>329</v>
       </c>
       <c r="D46" s="2"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="19"/>
+      <c r="K46" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="L46" s="19" t="s">
+        <v>191</v>
+      </c>
       <c r="M46" s="22"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="1"/>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="N46" s="2">
+        <v>10</v>
+      </c>
+      <c r="O46" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="C47" t="s">
-        <v>282</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="D47" s="2"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="K47" s="34"/>
-      <c r="L47" s="19"/>
+      <c r="K47" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="L47" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="M47" s="22"/>
-      <c r="N47" s="2"/>
+      <c r="N47" s="2">
+        <v>11</v>
+      </c>
       <c r="O47" t="s">
-        <v>84</v>
-      </c>
-      <c r="P47" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="4" t="s">
+        <v>318</v>
+      </c>
       <c r="D48" s="2"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="K48" s="34"/>
+      <c r="L48" s="19"/>
       <c r="M48" s="22"/>
       <c r="N48" s="2"/>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="D49" s="2"/>
+      <c r="O48" s="1"/>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" t="s">
+        <v>292</v>
+      </c>
+      <c r="C49" t="s">
+        <v>331</v>
+      </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
+      <c r="I49" s="32" t="s">
+        <v>211</v>
+      </c>
       <c r="K49" s="34"/>
       <c r="L49" s="19"/>
       <c r="M49" s="22"/>
       <c r="N49" s="2"/>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="O49" t="s">
+        <v>319</v>
+      </c>
+      <c r="P49" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="4" t="s">
+        <v>332</v>
+      </c>
       <c r="D50" s="2"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -3621,47 +3914,99 @@
       <c r="M50" s="22"/>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:17">
+      <c r="A51" t="s">
+        <v>293</v>
+      </c>
+      <c r="C51" t="s">
+        <v>158</v>
+      </c>
       <c r="D51" s="2"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="19"/>
+      <c r="I51" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="K51" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="L51" s="41" t="s">
+        <v>220</v>
+      </c>
       <c r="M51" s="22"/>
-      <c r="N51" s="2"/>
-    </row>
-    <row r="52" spans="1:14">
+      <c r="N51" s="2">
+        <v>4</v>
+      </c>
+      <c r="O51" t="s">
+        <v>217</v>
+      </c>
+      <c r="P51" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" t="s">
+        <v>294</v>
+      </c>
+      <c r="C52" t="s">
+        <v>158</v>
+      </c>
       <c r="D52" s="2"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="19"/>
+      <c r="I52" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="K52" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="L52" s="41" t="s">
+        <v>223</v>
+      </c>
       <c r="M52" s="22"/>
-      <c r="N52" s="2"/>
-    </row>
-    <row r="53" spans="1:14">
+      <c r="N52" s="2">
+        <v>8</v>
+      </c>
+      <c r="O52" t="s">
+        <v>218</v>
+      </c>
+      <c r="P52" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="D53" s="2"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-      <c r="K53" s="34"/>
+      <c r="K53" s="40" t="s">
+        <v>221</v>
+      </c>
       <c r="L53" s="19"/>
       <c r="M53" s="22"/>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:17">
       <c r="D54" s="2"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="19"/>
+      <c r="I54" s="33"/>
+      <c r="L54" s="20"/>
       <c r="M54" s="22"/>
-      <c r="N54" s="2"/>
-    </row>
-    <row r="55" spans="1:14">
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="D55" s="2"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -3670,9 +4015,9 @@
       <c r="L55" s="20"/>
       <c r="M55" s="22"/>
     </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="4" t="s">
-        <v>90</v>
+    <row r="56" spans="1:17">
+      <c r="A56" s="30" t="s">
+        <v>231</v>
       </c>
       <c r="D56" s="2"/>
       <c r="F56" s="1"/>
@@ -3682,9 +4027,9 @@
       <c r="L56" s="20"/>
       <c r="M56" s="22"/>
     </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="30" t="s">
-        <v>198</v>
+    <row r="57" spans="1:17">
+      <c r="A57" s="12" t="s">
+        <v>137</v>
       </c>
       <c r="D57" s="2"/>
       <c r="F57" s="1"/>
@@ -3694,9 +4039,9 @@
       <c r="L57" s="20"/>
       <c r="M57" s="22"/>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:17">
       <c r="A58" s="12" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="D58" s="2"/>
       <c r="F58" s="1"/>
@@ -3706,9 +4051,9 @@
       <c r="L58" s="20"/>
       <c r="M58" s="22"/>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:17">
       <c r="A59" s="12" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="D59" s="2"/>
       <c r="F59" s="1"/>
@@ -3718,9 +4063,9 @@
       <c r="L59" s="20"/>
       <c r="M59" s="22"/>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:17">
       <c r="A60" s="12" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="D60" s="2"/>
       <c r="F60" s="1"/>
@@ -3730,9 +4075,9 @@
       <c r="L60" s="20"/>
       <c r="M60" s="22"/>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:17">
       <c r="A61" s="12" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="D61" s="2"/>
       <c r="F61" s="1"/>
@@ -3742,9 +4087,9 @@
       <c r="L61" s="20"/>
       <c r="M61" s="22"/>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:17">
       <c r="A62" s="12" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="D62" s="2"/>
       <c r="F62" s="1"/>
@@ -3754,9 +4099,9 @@
       <c r="L62" s="20"/>
       <c r="M62" s="22"/>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:17">
       <c r="A63" s="12" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="D63" s="2"/>
       <c r="F63" s="1"/>
@@ -3766,9 +4111,9 @@
       <c r="L63" s="20"/>
       <c r="M63" s="22"/>
     </row>
-    <row r="64" spans="1:14">
-      <c r="A64" s="12" t="s">
-        <v>203</v>
+    <row r="64" spans="1:17">
+      <c r="A64" s="30" t="s">
+        <v>148</v>
       </c>
       <c r="D64" s="2"/>
       <c r="F64" s="1"/>
@@ -3780,7 +4125,7 @@
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="30" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="D65" s="2"/>
       <c r="F65" s="1"/>
@@ -3792,7 +4137,7 @@
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="30" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="D66" s="2"/>
       <c r="F66" s="1"/>
@@ -3803,471 +4148,102 @@
       <c r="M66" s="22"/>
     </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="33"/>
-      <c r="L67" s="20"/>
-      <c r="M67" s="22"/>
+      <c r="A67" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="12" t="s">
-        <v>187</v>
+        <v>124</v>
       </c>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
     </row>
     <row r="69" spans="1:15">
-      <c r="A69" s="12" t="s">
-        <v>173</v>
+      <c r="A69" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
+        <v>161</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="J70" s="17"/>
     </row>
     <row r="71" spans="1:15">
-      <c r="A71" s="4" t="s">
-        <v>216</v>
+      <c r="A71" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="D71" s="1"/>
       <c r="J71" s="17"/>
     </row>
     <row r="72" spans="1:15">
-      <c r="A72" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D72" s="1"/>
-      <c r="J72" s="17"/>
+      <c r="A72" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O72" s="21"/>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O73" s="21"/>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="4" t="s">
-        <v>286</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75" spans="1:15">
-      <c r="A75" s="4"/>
+      <c r="A75" s="4" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="76" spans="1:15">
-      <c r="A76" t="s">
-        <v>77</v>
-      </c>
-      <c r="O76" s="1"/>
+      <c r="A76" s="4" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="77" spans="1:15">
-      <c r="A77" t="s">
-        <v>78</v>
-      </c>
-      <c r="O77">
+      <c r="A77" s="4"/>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="4"/>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="O79" s="1"/>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="O80">
         <f>LOG10(1000)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
-      <c r="A78" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
-      <c r="A79" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
-      <c r="A80" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
-        <v>66</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="I4:R4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4279,19 +4255,444 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="8" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E61412-CDDA-4422-8174-3D442F64324A}">
+  <dimension ref="A1:A91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
